--- a/Submit/Team_10_Week_10_181114_The_Veil/Feedback/Team Feedback.xlsx
+++ b/Submit/Team_10_Week_10_181114_The_Veil/Feedback/Team Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Feedback</t>
   </si>
@@ -457,6 +457,13 @@
 3.In these chats we have as little as 5 minutes to garner as much advice and ideas as we can, use their experience and time wisely (Ken)
 4.Avoid perfectionist behaviour, sometimes you need to get something to a stage that is 'good enough for now,' and improve upon it later if time allows, otherwise the game won't become finished. 'Still continues to work - Doesn't break' (Graham &amp; Ricardo - Outplay)
 5.Proof of concept as quickly as possible, more time to improve upon it! (Graham &amp; Ricardo - Outplay) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent supporting documentation in 'Feature Complete' Submission, but not all 
+documents included were necessary and we forgot to include  'known issues' &amp; feature lists, meaning it would fail 'Alpha build' criteria, note this in reflections. (Martin)
+File name was correct (close-enough... make sure there is no doubt for next submission!) (Martin)
+We maybe need better communication on build dates, to ensure file names, and all supporting documents are included (Team)
 </t>
   </si>
 </sst>
@@ -528,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -554,6 +561,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -836,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1086,74 @@
       </c>
       <c r="B36" s="8"/>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>43409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>43410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>43411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>43412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>43414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>43415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>43417</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>43421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
